--- a/experiment result cnn/64_0.8_40_zs50_kappa_lp.xlsx
+++ b/experiment result cnn/64_0.8_40_zs50_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.003018225830779354</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.03480430063777855</v>
+        <v>0.0001400739999480578</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.003326376779891711</v>
+        <v>0.0002401119999372093</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.004520656983696772</v>
+        <v>0.0002600939999678509</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.01515500415536736</v>
+        <v>0.0007407459850479562</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01069205167077051</v>
+        <v>0.001662797973797719</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.002649847831435413</v>
+        <v>0.0009217039782192938</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.005435748501668056</v>
+        <v>0.002595984675092577</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.003260531524144137</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.01417731415243997</v>
+        <v>0.0001400219999985994</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.004660624361642234</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01094969846832383</v>
+        <v>0.0007206919977419829</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.006197335711599705</v>
+        <v>6.000599999987997e-05</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01362321477101436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.02103991985149569</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.004124642996936963</v>
+        <v>0.002935952832694003</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.002991357497079626</v>
+        <v>0.0001000339999897118</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.0006176080895416668</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.006069849013816711</v>
+        <v>0.005333728419742863</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.001615429003569687</v>
+        <v>0.0006006399980223924</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.007582892346064745</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.001779294365300338</v>
+        <v>6.001799999675806e-05</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.002394447945724967</v>
+        <v>0.000100021999996678</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.003973670234696122</v>
+        <v>0.0003002619994097883</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.0008050690648297954</v>
+        <v>0.0006806199946807844</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.01816562092862728</v>
+        <v>0.0006211179887290456</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.006734915983057019</v>
+        <v>6.000999999931974e-05</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01353417250965955</v>
+        <v>0.002675335968738012</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.01305871543406764</v>
+        <v>0.001566823543141486</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.02002970413647705</v>
+        <v>8.001999999671805e-05</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.003890872490754971</v>
+        <v>0.0002802599994098283</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.0008374813171368181</v>
+        <v>0.0001200359999896718</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.005531346468832731</v>
+        <v>0.001550387842252043</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.0009330790116902861</v>
+        <v>0.000800655978659424</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01188384755013774</v>
+        <v>0.000440291999405826</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01257454339179367</v>
+        <v>4.000799999935975e-05</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.002801654058722532</v>
+        <v>0.0006812679865656898</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.009159395964003329</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0009182749071731102</v>
+        <v>0.005760603848433602</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.0103065751229429</v>
+        <v>0.002210555205604256</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.002765154537803961</v>
+        <v>0.002309925367428965</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.02125378395288825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.001167694328304185</v>
+        <v>0.001344201860658428</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.004604311182943683</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.002237068910658838</v>
+        <v>0.01247786420486745</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.0210639860107436</v>
+        <v>0.0004003039995029047</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.006851842619503742</v>
+        <v>0.000300273999402822</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.002326411231701253</v>
+        <v>0.0001000179999986795</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01325305428018966</v>
+        <v>2.000199999995999e-05</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.01848766467205076</v>
+        <v>0.0009616719799105077</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.009662534557856614</v>
+        <v>0.04863628211033112</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.002160002713573483</v>
+        <v>0.1249057337144544</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.0006485039819494425</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.005200089478066607</v>
+        <v>8.00319999897518e-05</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.0007424052725981411</v>
+        <v>0.001905169526826916</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.0111952611855878</v>
+        <v>0.0925581313446627</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01803882092276219</v>
+        <v>0.01246025775032356</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.003350593548079968</v>
+        <v>0.03607577032488715</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.03527472442404076</v>
+        <v>0.001805431438325836</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.04351152434991842</v>
+        <v>0.0005403419996402864</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.005267836751147633</v>
+        <v>0.01126855872726502</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.01776185739369445</v>
+        <v>0.0007824619395526342</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.001600453272605338</v>
+        <v>0.0006007079965702144</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.001382889679876349</v>
+        <v>0.03944823868473367</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.006911633580338404</v>
+        <v>0.0351503399134525</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.007408591885946848</v>
+        <v>0.401693759373256</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.02267446067938434</v>
+        <v>0.01546879263437939</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.001716359471886152</v>
+        <v>0.04883763142018616</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.0004799449186266897</v>
+        <v>0.001766166757364324</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.001051781223674974</v>
+        <v>0.02703563963091136</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.001619517610955326</v>
+        <v>0.01310218007529596</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.0007871805573488983</v>
+        <v>0.01573918187412867</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.002367531961307006</v>
+        <v>0.04562209563216577</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.006805252003304947</v>
+        <v>0.03638606905946232</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.01011459552135769</v>
+        <v>0.09240104375737228</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.009843740616875478</v>
+        <v>0.03659071869140928</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.009673688970066822</v>
+        <v>0.002508681571729962</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.002958093080692207</v>
+        <v>0.1657263048708013</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.005306215852525354</v>
+        <v>0.0119610326114659</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.001371342924054952</v>
+        <v>0.06743349793626538</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>0.001984469302252828</v>
+        <v>0.0368486186037484</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>0.002699251739597563</v>
+        <v>0.007592769377365916</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>0.00151982315031608</v>
+        <v>0.006075608700785919</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>0.01438733719221045</v>
+        <v>0.002314824221551844</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>0.001112002836025522</v>
+        <v>0.07330292147651835</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>0.0212833801464841</v>
+        <v>0.001543105956811363</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>0.02017745416742768</v>
+        <v>0.003058344212630165</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>0.003588045999131638</v>
+        <v>0.0007805019694402758</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>0.001066806005523619</v>
+        <v>0.002611586854061316</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>0.03872626344239564</v>
+        <v>0.004422569863684991</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>0.005079209964431333</v>
+        <v>0.03996991076268839</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>0.0008852595986006065</v>
+        <v>0.05212786379234313</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>0.002557578760938445</v>
+        <v>0.004094023265454974</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>0.01316397618399553</v>
+        <v>0.05584787605656918</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>0.004185897786259302</v>
+        <v>0.004404785609771833</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>0.00526654548893838</v>
+        <v>0.02440800915329591</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>0.001005410478783567</v>
+        <v>0.004337202016949483</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>0.005825595254324458</v>
+        <v>0.06748017280303117</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>0.0008586404038651077</v>
+        <v>0.01876543648827588</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>0.001189615609437606</v>
+        <v>0.3033796989455166</v>
       </c>
     </row>
   </sheetData>
